--- a/Code/Game_Study/together/进展表.xlsx
+++ b/Code/Game_Study/together/进展表.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>时间</t>
   </si>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>完成棋盘UI的雏形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛雨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,19 +117,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -174,18 +180,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -193,38 +235,31 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -524,26 +559,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="31.875" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="33.75" customWidth="1"/>
-    <col min="6" max="6" width="56.75" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="13"/>
+    <col min="3" max="3" width="31.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="56.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -556,98 +593,102 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="78" customHeight="1">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6" s="19" customFormat="1" ht="78" customHeight="1">
+      <c r="A2" s="14">
         <v>42584.021331018499</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" s="19" customFormat="1">
+      <c r="A3" s="14">
+        <v>42584.971863425897</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
-      <c r="A3" s="3">
-        <v>42584.971863425897</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="17">
         <v>1E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="27">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>42586.984479166698</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>8.9999999999999996E-7</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="93.95" customHeight="1">
-      <c r="A5" s="3">
+    <row r="5" spans="1:6" s="19" customFormat="1" ht="93.95" customHeight="1">
+      <c r="A5" s="14">
         <v>42587.043587963002</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="19" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="14">
+        <v>42589</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
+      <c r="C6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="10">
-        <v>42589</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.1</v>
+    <row r="7" spans="1:6" s="9" customFormat="1">
+      <c r="A7" s="7">
+        <v>42591.397685185184</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="14" customFormat="1">
-      <c r="A7" s="11">
-        <v>42591.397685185184</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.05</v>
-      </c>
+    <row r="8" spans="1:6">
+      <c r="B8" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Code/Game_Study/together/进展表.xlsx
+++ b/Code/Game_Study/together/进展表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>时间</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>薛雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩一个游戏结束处理没做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成多客户端之间的游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,21 +257,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -562,7 +575,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -688,7 +701,21 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="12"/>
+      <c r="A8" s="22">
+        <v>42601.409861111111</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
